--- a/7/cfrp2=1/thickness/7_cfrp2=1_thickness_SS.xlsx
+++ b/7/cfrp2=1/thickness/7_cfrp2=1_thickness_SS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jay0423/Documents/GitHub/ansys-management-3dPrinter/7/cfrp2=1/thickness/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{418485E5-A15E-514F-942D-06E694462465}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7004CAEC-CEAF-3343-B9A7-0486D6670FBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9140" yWindow="3620" windowWidth="16100" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,18 @@
     <sheet name="7_c21_th_th1.73" sheetId="6" r:id="rId6"/>
     <sheet name="7_c21_th_th2.0" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -5763,7 +5774,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection sqref="A1:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
